--- a/store/dulieu_khachhang/KH_OLD.xlsx
+++ b/store/dulieu_khachhang/KH_OLD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THỰC TẬP 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A94C0A-8473-46F6-ABE8-1007AF1945C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795210C-F01B-4A25-8E8E-146741AE1B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Số điện thoại</t>
   </si>
@@ -33,16 +33,10 @@
     <t>Họ và tên khách hàng</t>
   </si>
   <si>
-    <t>0187654358</t>
+    <t>0987654357</t>
   </si>
   <si>
-    <t>Nguyễn Văn Y</t>
-  </si>
-  <si>
-    <t>0287654358</t>
-  </si>
-  <si>
-    <t>0329876750</t>
+    <t>0187654358</t>
   </si>
 </sst>
 </file>
@@ -439,7 +433,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -461,36 +455,10 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
